--- a/resources/experiment 2/metrics/MAPE/average time/Angina.xlsx
+++ b/resources/experiment 2/metrics/MAPE/average time/Angina.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09463766459970795</v>
+        <v>59478033414012.48</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09463766459970795</v>
+        <v>64931039046278.48</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09463766459970795</v>
+        <v>700147355913158.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398145539700469</v>
+        <v>0.03626014045630512</v>
       </c>
       <c r="C4" t="n">
-        <v>398145539700469</v>
+        <v>0.03656582253708062</v>
       </c>
       <c r="D4" t="n">
-        <v>398145539700469</v>
+        <v>307778245403039.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555758179041342.2</v>
+        <v>111807112420375</v>
       </c>
       <c r="C5" t="n">
-        <v>555758179041342.2</v>
+        <v>22819178645570.24</v>
       </c>
       <c r="D5" t="n">
-        <v>555758179041342.2</v>
+        <v>241537847368103.9</v>
       </c>
     </row>
   </sheetData>
